--- a/ProjectFiles/HECO/PyDSS Settings/HP-Legacy/ExportLists/ExportMode-byElement.xlsx
+++ b/ProjectFiles/HECO/PyDSS Settings/HP-Legacy/ExportLists/ExportMode-byElement.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADC5A05-0721-4F4C-9A08-7413B84016CF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Property 1</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t>pf</t>
+  </si>
+  <si>
+    <t>storagebus</t>
+  </si>
+  <si>
+    <t>puVmagAngle</t>
   </si>
 </sst>
 </file>
@@ -228,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04990430-CE08-441C-B2BD-2AFFEB72CF57}" name="Table1" displayName="Table1" ref="A2:C4" insertRowShift="1" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A2:C4" xr:uid="{E3360F6F-2B86-4F28-B72A-A82F0B4B3ACF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04990430-CE08-441C-B2BD-2AFFEB72CF57}" name="Table1" displayName="Table1" ref="A2:C5" insertRowShift="1" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A2:C5" xr:uid="{E3360F6F-2B86-4F28-B72A-A82F0B4B3ACF}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3619F9E2-CABB-4374-90B5-6CD83340E6A7}" name="Element" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B115F4B2-93D8-4543-9D4B-E76870DA17CA}" name="Property 1" dataDxfId="1"/>
@@ -502,20 +509,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -525,7 +532,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -547,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -555,6 +562,15 @@
         <v>6</v>
       </c>
       <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
